--- a/Data Files/ListUserImport.xlsx
+++ b/Data Files/ListUserImport.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="67">
   <si>
     <t>Nam</t>
   </si>
@@ -143,13 +143,91 @@
   </si>
   <si>
     <t>Department</t>
+  </si>
+  <si>
+    <t>Toan</t>
+  </si>
+  <si>
+    <t>qqqq@gmail.com</t>
+  </si>
+  <si>
+    <t>Tu</t>
+  </si>
+  <si>
+    <t>wwww@gmail.com</t>
+  </si>
+  <si>
+    <t>Tuan</t>
+  </si>
+  <si>
+    <t>rrrrr@gmail.com</t>
+  </si>
+  <si>
+    <t>Thuc</t>
+  </si>
+  <si>
+    <t>Nguyne</t>
+  </si>
+  <si>
+    <t>oii@gmail.com</t>
+  </si>
+  <si>
+    <t>Nhat</t>
+  </si>
+  <si>
+    <t>Huynh</t>
+  </si>
+  <si>
+    <t>ppooo@gmail.com</t>
+  </si>
+  <si>
+    <t>Hoa</t>
+  </si>
+  <si>
+    <t>pppppppp@gmail.com</t>
+  </si>
+  <si>
+    <t>Phuong</t>
+  </si>
+  <si>
+    <t>lmm@gmail.com</t>
+  </si>
+  <si>
+    <t>Doan</t>
+  </si>
+  <si>
+    <t>lkkjn@gmail.com</t>
+  </si>
+  <si>
+    <t>zzxxx@gmail.com</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>xzczxczxczxc@gmail.com</t>
+  </si>
+  <si>
+    <t>math</t>
+  </si>
+  <si>
+    <t>nguy</t>
+  </si>
+  <si>
+    <t>asdd123@gmail.com</t>
+  </si>
+  <si>
+    <t>SW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +253,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -193,10 +279,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -211,8 +298,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -491,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,7 +795,230 @@
         <v>34</v>
       </c>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>15656</v>
+      </c>
+      <c r="F11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12">
+        <v>43</v>
+      </c>
+      <c r="E12">
+        <v>132323</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13">
+        <v>64</v>
+      </c>
+      <c r="E13">
+        <v>21323</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>4998</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15">
+        <v>65</v>
+      </c>
+      <c r="E15">
+        <v>7146</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16">
+        <v>87</v>
+      </c>
+      <c r="E16">
+        <v>564</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17">
+        <v>67</v>
+      </c>
+      <c r="E17">
+        <v>132</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18">
+        <v>45</v>
+      </c>
+      <c r="E18">
+        <v>8953</v>
+      </c>
+      <c r="F18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>65656</v>
+      </c>
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20">
+        <v>34</v>
+      </c>
+      <c r="E20">
+        <v>3196</v>
+      </c>
+      <c r="F20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21">
+        <v>57</v>
+      </c>
+      <c r="E21">
+        <v>9977</v>
+      </c>
+      <c r="F21" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C21" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>